--- a/CourseDocs/Unit 16 - SoL Teacher.xlsx
+++ b/CourseDocs/Unit 16 - SoL Teacher.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4004DiTh\Documents\00 Admin\AstroWorkshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documents\Astronomy\CourseDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF5A4E0-1A43-415E-A712-F3888144F33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19300" windowHeight="7150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="38400" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="2" r:id="rId1"/>
@@ -19,17 +20,25 @@
     <sheet name="16 D" sheetId="5" r:id="rId5"/>
     <sheet name="16 C" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -109,9 +118,6 @@
     <t>Intro to Unit 16</t>
   </si>
   <si>
-    <t>16 A Assignment Brief &amp; 1 Intro &amp; 2 Astronomy a History ppts</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
@@ -397,9 +403,6 @@
     <t>Resources 2 (most to make)</t>
   </si>
   <si>
-    <t>Intro &amp; Checklist needed A3 &amp; Coding Supplement</t>
-  </si>
-  <si>
     <t>Zip file with files in and txt instructions</t>
   </si>
   <si>
@@ -589,9 +592,6 @@
     <t>Online Quiz + Finish AA012 and bring next lesson</t>
   </si>
   <si>
-    <t>Intro to Unit and Reading List and Obs Booklet</t>
-  </si>
-  <si>
     <t>15 + 1 Demo Board</t>
   </si>
   <si>
@@ -719,12 +719,24 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>CODING SUPP and NASA Planet Data Sheet</t>
+  </si>
+  <si>
+    <t>Unit 16 Intro and Objectives pdfs, A Ass. Brief and Student Briefs</t>
+  </si>
+  <si>
+    <t>Obs Booklet and PPTS 1 and 2</t>
+  </si>
+  <si>
+    <t>Reading History Islam and astronomy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1137,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -1145,14 +1157,14 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1169,64 +1181,64 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1256,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H19" s="1"/>
     </row>
   </sheetData>
@@ -1254,39 +1266,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" style="9"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="67.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="9"/>
+    <col min="6" max="6" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="67.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.53125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.53125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.453125" customWidth="1"/>
-    <col min="17" max="17" width="49.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.46484375" customWidth="1"/>
+    <col min="17" max="17" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,25 +1318,25 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>3</v>
@@ -1333,16 +1345,16 @@
         <v>22</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44137</v>
       </c>
@@ -1362,42 +1374,45 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R2" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44138</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44139</v>
       </c>
@@ -1411,40 +1426,40 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="22">
         <v>7.1</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="17">
         <v>15</v>
       </c>
       <c r="M4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
-        <v>55</v>
-      </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44140</v>
       </c>
@@ -1458,61 +1473,61 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="22">
         <v>7.2</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="R5" t="s">
         <v>110</v>
       </c>
-      <c r="O5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44141</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44142</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44143</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44144</v>
       </c>
@@ -1526,42 +1541,42 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
       <c r="M9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44145</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44146</v>
       </c>
@@ -1575,40 +1590,40 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="22">
         <v>7.3</v>
       </c>
       <c r="H11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44147</v>
       </c>
@@ -1622,55 +1637,55 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" t="s">
         <v>68</v>
       </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
       <c r="O12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44148</v>
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44149</v>
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44150</v>
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44151</v>
       </c>
@@ -1684,43 +1699,43 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="22">
         <v>7.2</v>
       </c>
       <c r="H16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44152</v>
       </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44153</v>
       </c>
@@ -1731,55 +1746,55 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="12">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" t="s">
         <v>138</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="S18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44154</v>
       </c>
@@ -1793,58 +1808,58 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44155</v>
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44156</v>
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44157</v>
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44158</v>
       </c>
@@ -1858,43 +1873,43 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44159</v>
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44160</v>
       </c>
@@ -1909,40 +1924,40 @@
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44161</v>
       </c>
@@ -1956,58 +1971,58 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44162</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44163</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44164</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>44165</v>
       </c>
@@ -2018,46 +2033,46 @@
         <v>0.17</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="11">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44166</v>
       </c>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44167</v>
       </c>
@@ -2071,37 +2086,37 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="22">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L32" s="17">
         <v>15</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44168</v>
       </c>
@@ -2115,55 +2130,55 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44169</v>
       </c>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44170</v>
       </c>
       <c r="L35" s="18"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44171</v>
       </c>
       <c r="L36" s="18"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44172</v>
       </c>
@@ -2178,45 +2193,45 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44173</v>
       </c>
       <c r="E38" s="13"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>44174</v>
       </c>
@@ -2227,46 +2242,46 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="13">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="22">
         <v>15.1</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L39" s="17">
         <v>8</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44175</v>
       </c>
@@ -2280,64 +2295,64 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" t="s">
+        <v>68</v>
+      </c>
+      <c r="O40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N40" t="s">
-        <v>69</v>
-      </c>
-      <c r="O40" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="R40" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44176</v>
       </c>
       <c r="E41" s="13"/>
       <c r="L41" s="18"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44177</v>
       </c>
       <c r="E42" s="13"/>
       <c r="L42" s="18"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44178</v>
       </c>
       <c r="E43" s="13"/>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44179</v>
       </c>
@@ -2347,14 +2362,14 @@
       <c r="E44" s="13"/>
       <c r="L44" s="18"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44180</v>
       </c>
       <c r="E45" s="13"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44181</v>
       </c>
@@ -2364,7 +2379,7 @@
       <c r="E46" s="13"/>
       <c r="L46" s="18"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44182</v>
       </c>
@@ -2374,28 +2389,28 @@
       <c r="E47" s="13"/>
       <c r="L47" s="18"/>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44183</v>
       </c>
       <c r="E48" s="13"/>
       <c r="L48" s="18"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44184</v>
       </c>
       <c r="E49" s="13"/>
       <c r="L49" s="18"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44185</v>
       </c>
       <c r="E50" s="13"/>
       <c r="L50" s="18"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44186</v>
       </c>
@@ -2405,14 +2420,14 @@
       <c r="E51" s="13"/>
       <c r="L51" s="18"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44187</v>
       </c>
       <c r="E52" s="13"/>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44188</v>
       </c>
@@ -2422,7 +2437,7 @@
       <c r="E53" s="13"/>
       <c r="L53" s="18"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44189</v>
       </c>
@@ -2432,77 +2447,77 @@
       <c r="E54" s="13"/>
       <c r="L54" s="18"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44190</v>
       </c>
       <c r="E55" s="13"/>
       <c r="L55" s="18"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44191</v>
       </c>
       <c r="E56" s="13"/>
       <c r="L56" s="18"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44192</v>
       </c>
       <c r="E57" s="13"/>
       <c r="L57" s="18"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44193</v>
       </c>
       <c r="E58" s="13"/>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44194</v>
       </c>
       <c r="E59" s="13"/>
       <c r="L59" s="18"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44195</v>
       </c>
       <c r="E60" s="13"/>
       <c r="L60" s="18"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44196</v>
       </c>
       <c r="E61" s="13"/>
       <c r="L61" s="18"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44197</v>
       </c>
       <c r="E62" s="13"/>
       <c r="L62" s="18"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44198</v>
       </c>
       <c r="E63" s="13"/>
       <c r="L63" s="18"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44199</v>
       </c>
       <c r="E64" s="13"/>
       <c r="L64" s="18"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44200</v>
       </c>
@@ -2516,45 +2531,45 @@
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" s="22">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L65" s="18"/>
       <c r="M65" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44201</v>
       </c>
       <c r="E66" s="13"/>
       <c r="L66" s="18"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44202</v>
       </c>
@@ -2568,40 +2583,40 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q67" t="s">
         <v>99</v>
       </c>
-      <c r="L67" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N67" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>100</v>
-      </c>
       <c r="R67" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44203</v>
       </c>
@@ -2615,58 +2630,58 @@
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68" s="22">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44204</v>
       </c>
       <c r="E69" s="13"/>
       <c r="L69" s="18"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44205</v>
       </c>
       <c r="E70" s="13"/>
       <c r="L70" s="18"/>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44206</v>
       </c>
       <c r="E71" s="13"/>
       <c r="L71" s="18"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44207</v>
       </c>
@@ -2680,44 +2695,44 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44208</v>
       </c>
       <c r="L73" s="18"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44209</v>
       </c>
@@ -2731,28 +2746,28 @@
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="15">
         <v>44210</v>
       </c>
@@ -2763,55 +2778,55 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E75" s="11">
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44211</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44212</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44213</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44214</v>
       </c>
@@ -2819,12 +2834,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44215</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44216</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44217</v>
       </c>
@@ -2840,22 +2855,22 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44218</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44219</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44220</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44221</v>
       </c>
@@ -2865,66 +2880,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="M4" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="M9" r:id="rId6"/>
-    <hyperlink ref="Q9" r:id="rId7" location=":~:text=Not%20only%20is%20coding%20a,at%20problems%20in%20new%20ways.&amp;text=As%20tools%20evolve%20to%20allow,core%20part%20of%20scientific%20education."/>
-    <hyperlink ref="Q11" r:id="rId8"/>
-    <hyperlink ref="M11" r:id="rId9"/>
-    <hyperlink ref="M12" r:id="rId10"/>
-    <hyperlink ref="M16" r:id="rId11"/>
-    <hyperlink ref="M18" r:id="rId12"/>
-    <hyperlink ref="M19" r:id="rId13"/>
-    <hyperlink ref="M23" r:id="rId14"/>
-    <hyperlink ref="M25" r:id="rId15"/>
-    <hyperlink ref="Q25" r:id="rId16"/>
-    <hyperlink ref="M26" r:id="rId17"/>
-    <hyperlink ref="M30" r:id="rId18"/>
-    <hyperlink ref="M32" r:id="rId19"/>
-    <hyperlink ref="M33" r:id="rId20"/>
-    <hyperlink ref="M37" r:id="rId21"/>
-    <hyperlink ref="Q37" r:id="rId22"/>
-    <hyperlink ref="M39" r:id="rId23"/>
-    <hyperlink ref="M40" r:id="rId24"/>
-    <hyperlink ref="Q40" r:id="rId25"/>
-    <hyperlink ref="M65" r:id="rId26"/>
-    <hyperlink ref="M67" r:id="rId27"/>
-    <hyperlink ref="M68" r:id="rId28"/>
-    <hyperlink ref="M72" r:id="rId29"/>
-    <hyperlink ref="K68" r:id="rId30"/>
-    <hyperlink ref="R40" r:id="rId31"/>
-    <hyperlink ref="K40" r:id="rId32"/>
-    <hyperlink ref="M75" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="R18" r:id="rId35"/>
-    <hyperlink ref="R26" r:id="rId36"/>
-    <hyperlink ref="K32" r:id="rId37"/>
-    <hyperlink ref="K39" r:id="rId38"/>
-    <hyperlink ref="R67" r:id="rId39"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="M4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="Q9" r:id="rId7" location=":~:text=Not%20only%20is%20coding%20a,at%20problems%20in%20new%20ways.&amp;text=As%20tools%20evolve%20to%20allow,core%20part%20of%20scientific%20education." xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="M12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="M16" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="M18" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="M19" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="M23" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="M25" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Q25" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="M26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="M30" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="M32" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="M33" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="M37" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="Q37" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="M39" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="M40" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="Q40" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="M65" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="M67" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="M68" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="M72" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="K68" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="R40" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="K40" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="M75" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="R18" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="R26" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="K32" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="R67" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="R2" r:id="rId40" xr:uid="{BC436DCD-628E-4AA1-911C-53E228925D55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" r:id="rId40"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44214</v>
       </c>
@@ -2949,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44215</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44216</v>
       </c>
@@ -2965,10 +2981,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44217</v>
       </c>
@@ -2976,22 +2992,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44219</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44220</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44221</v>
       </c>
@@ -2999,12 +3015,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44223</v>
       </c>
@@ -3012,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44224</v>
       </c>
@@ -3020,22 +3036,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44227</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44228</v>
       </c>
@@ -3043,12 +3059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44229</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44230</v>
       </c>
@@ -3056,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44231</v>
       </c>
@@ -3067,22 +3083,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44232</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44233</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44234</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44235</v>
       </c>
@@ -3090,12 +3106,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44237</v>
       </c>
@@ -3103,7 +3119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44238</v>
       </c>
@@ -3111,57 +3127,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44240</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44241</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44242</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44243</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44244</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44245</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44246</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44247</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44248</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44249</v>
       </c>
@@ -3169,12 +3185,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44250</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44251</v>
       </c>
@@ -3182,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44252</v>
       </c>
@@ -3190,22 +3206,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44253</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44254</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44255</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44256</v>
       </c>
@@ -3213,12 +3229,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44257</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44258</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44259</v>
       </c>
@@ -3234,22 +3250,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44260</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44262</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44263</v>
       </c>
@@ -3257,12 +3273,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44264</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44265</v>
       </c>
@@ -3270,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44266</v>
       </c>
@@ -3281,22 +3297,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44267</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44268</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44269</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44270</v>
       </c>
@@ -3304,12 +3320,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44271</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44272</v>
       </c>
@@ -3317,7 +3333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44273</v>
       </c>
@@ -3325,22 +3341,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44274</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44275</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44276</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44277</v>
       </c>
@@ -3348,12 +3364,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44278</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44279</v>
       </c>
@@ -3361,7 +3377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44280</v>
       </c>
@@ -3369,92 +3385,92 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44281</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44282</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44283</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44284</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44285</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44286</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44287</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44288</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44289</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44290</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44291</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44292</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44293</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44294</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44295</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44296</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44297</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44298</v>
       </c>
@@ -3462,12 +3478,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44299</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44300</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44301</v>
       </c>
@@ -3489,41 +3505,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>166</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3536,9 +3552,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3547,12 +3563,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3561,12 +3577,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>171</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3576,12 +3592,12 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3591,21 +3607,21 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3614,24 +3630,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
